--- a/Datos/2_SERIES_CONEXIONES_INTERNET_MOVIL_MAR21_240521.xlsx
+++ b/Datos/2_SERIES_CONEXIONES_INTERNET_MOVIL_MAR21_240521.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastian\OneDrive\Escritorio\Ramos\2021-2\Habilidades Comunicativas\informe-analisis\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4DEB15-96AB-48F9-809F-444B98830867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFABF94-625D-405F-A309-4EEBE7D012B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -732,7 +732,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
@@ -1035,6 +1035,9 @@
     </xf>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11201,7 +11204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFC240"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A123" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
@@ -17059,10 +17062,10 @@
   <dimension ref="A1:BX222"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="Z9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10:B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -17336,67 +17339,67 @@
     </row>
     <row r="7" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136" t="s">
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="136" t="s">
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="137"/>
-      <c r="S7" s="137"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="137"/>
-      <c r="V7" s="137"/>
-      <c r="W7" s="137"/>
-      <c r="X7" s="137"/>
-      <c r="Y7" s="138"/>
-      <c r="Z7" s="136" t="s">
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="138"/>
+      <c r="W7" s="138"/>
+      <c r="X7" s="138"/>
+      <c r="Y7" s="139"/>
+      <c r="Z7" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="AA7" s="139"/>
-      <c r="AB7" s="139"/>
-      <c r="AC7" s="139"/>
-      <c r="AD7" s="139"/>
-      <c r="AE7" s="139"/>
-      <c r="AF7" s="139"/>
-      <c r="AG7" s="139"/>
-      <c r="AH7" s="139"/>
-      <c r="AI7" s="139"/>
-      <c r="AJ7" s="140"/>
+      <c r="AA7" s="140"/>
+      <c r="AB7" s="140"/>
+      <c r="AC7" s="140"/>
+      <c r="AD7" s="140"/>
+      <c r="AE7" s="140"/>
+      <c r="AF7" s="140"/>
+      <c r="AG7" s="140"/>
+      <c r="AH7" s="140"/>
+      <c r="AI7" s="140"/>
+      <c r="AJ7" s="141"/>
       <c r="AK7" s="119"/>
       <c r="AL7" s="15"/>
-      <c r="AM7" s="134"/>
-      <c r="AN7" s="135"/>
-      <c r="AO7" s="131" t="s">
+      <c r="AM7" s="135"/>
+      <c r="AN7" s="136"/>
+      <c r="AO7" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="AP7" s="132"/>
-      <c r="AQ7" s="132"/>
-      <c r="AR7" s="132"/>
-      <c r="AS7" s="132"/>
-      <c r="AT7" s="132"/>
-      <c r="AU7" s="132"/>
-      <c r="AV7" s="132"/>
-      <c r="AW7" s="132"/>
-      <c r="AX7" s="132"/>
-      <c r="AY7" s="132"/>
-      <c r="AZ7" s="132"/>
-      <c r="BA7" s="132"/>
-      <c r="BB7" s="133"/>
+      <c r="AP7" s="133"/>
+      <c r="AQ7" s="133"/>
+      <c r="AR7" s="133"/>
+      <c r="AS7" s="133"/>
+      <c r="AT7" s="133"/>
+      <c r="AU7" s="133"/>
+      <c r="AV7" s="133"/>
+      <c r="AW7" s="133"/>
+      <c r="AX7" s="133"/>
+      <c r="AY7" s="133"/>
+      <c r="AZ7" s="133"/>
+      <c r="BA7" s="133"/>
+      <c r="BB7" s="134"/>
     </row>
     <row r="8" spans="1:54" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -17655,9 +17658,9 @@
         <v>638787</v>
       </c>
     </row>
-    <row r="10" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="10">
+      <c r="B10" s="131">
         <v>2010</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -17752,9 +17755,11 @@
         <v>729958</v>
       </c>
     </row>
-    <row r="11" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="131">
+        <v>2010</v>
+      </c>
       <c r="C11" s="14" t="s">
         <v>13</v>
       </c>
@@ -17845,9 +17850,11 @@
         <v>780957</v>
       </c>
     </row>
-    <row r="12" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="131">
+        <v>2010</v>
+      </c>
       <c r="C12" s="14" t="s">
         <v>14</v>
       </c>
@@ -17938,9 +17945,11 @@
         <v>860017</v>
       </c>
     </row>
-    <row r="13" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="13"/>
+      <c r="B13" s="131">
+        <v>2010</v>
+      </c>
       <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
@@ -18031,9 +18040,11 @@
         <v>964118</v>
       </c>
     </row>
-    <row r="14" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="131">
+        <v>2010</v>
+      </c>
       <c r="C14" s="14" t="s">
         <v>16</v>
       </c>
@@ -18124,9 +18135,11 @@
         <v>1015940</v>
       </c>
     </row>
-    <row r="15" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="13"/>
+      <c r="B15" s="131">
+        <v>2010</v>
+      </c>
       <c r="C15" s="14" t="s">
         <v>17</v>
       </c>
@@ -18217,9 +18230,11 @@
         <v>1053617</v>
       </c>
     </row>
-    <row r="16" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
-      <c r="B16" s="13"/>
+      <c r="B16" s="131">
+        <v>2010</v>
+      </c>
       <c r="C16" s="14" t="s">
         <v>18</v>
       </c>
@@ -18310,9 +18325,11 @@
         <v>1091122</v>
       </c>
     </row>
-    <row r="17" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="131">
+        <v>2010</v>
+      </c>
       <c r="C17" s="14" t="s">
         <v>19</v>
       </c>
@@ -18403,9 +18420,11 @@
         <v>1133410</v>
       </c>
     </row>
-    <row r="18" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
-      <c r="B18" s="13"/>
+      <c r="B18" s="131">
+        <v>2010</v>
+      </c>
       <c r="C18" s="14" t="s">
         <v>20</v>
       </c>
@@ -18496,9 +18515,11 @@
         <v>1184896</v>
       </c>
     </row>
-    <row r="19" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="13"/>
+      <c r="B19" s="131">
+        <v>2010</v>
+      </c>
       <c r="C19" s="14" t="s">
         <v>21</v>
       </c>
@@ -18589,9 +18610,11 @@
         <v>1265877</v>
       </c>
     </row>
-    <row r="20" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="13"/>
+      <c r="B20" s="131">
+        <v>2010</v>
+      </c>
       <c r="C20" s="14" t="s">
         <v>22</v>
       </c>
@@ -18682,9 +18705,11 @@
         <v>1331159</v>
       </c>
     </row>
-    <row r="21" spans="1:54" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="131">
+        <v>2010</v>
+      </c>
       <c r="C21" s="18" t="s">
         <v>23</v>
       </c>
@@ -18775,9 +18800,9 @@
         <v>1445675</v>
       </c>
     </row>
-    <row r="22" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
-      <c r="B22" s="20">
+      <c r="B22" s="131">
         <v>2011</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -18872,9 +18897,11 @@
         <v>1780975</v>
       </c>
     </row>
-    <row r="23" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
-      <c r="B23" s="13"/>
+      <c r="B23" s="131">
+        <v>2011</v>
+      </c>
       <c r="C23" s="14" t="s">
         <v>13</v>
       </c>
@@ -18965,9 +18992,11 @@
         <v>1780671</v>
       </c>
     </row>
-    <row r="24" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
-      <c r="B24" s="13"/>
+      <c r="B24" s="131">
+        <v>2011</v>
+      </c>
       <c r="C24" s="14" t="s">
         <v>14</v>
       </c>
@@ -19058,9 +19087,11 @@
         <v>1918215</v>
       </c>
     </row>
-    <row r="25" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="131">
+        <v>2011</v>
+      </c>
       <c r="C25" s="14" t="s">
         <v>15</v>
       </c>
@@ -19151,9 +19182,11 @@
         <v>2019619</v>
       </c>
     </row>
-    <row r="26" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
-      <c r="B26" s="13"/>
+      <c r="B26" s="131">
+        <v>2011</v>
+      </c>
       <c r="C26" s="14" t="s">
         <v>16</v>
       </c>
@@ -19244,9 +19277,11 @@
         <v>2111901</v>
       </c>
     </row>
-    <row r="27" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
-      <c r="B27" s="13"/>
+      <c r="B27" s="131">
+        <v>2011</v>
+      </c>
       <c r="C27" s="14" t="s">
         <v>17</v>
       </c>
@@ -19337,9 +19372,11 @@
         <v>2241188</v>
       </c>
     </row>
-    <row r="28" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
-      <c r="B28" s="20"/>
+      <c r="B28" s="131">
+        <v>2011</v>
+      </c>
       <c r="C28" s="14" t="s">
         <v>18</v>
       </c>
@@ -19430,9 +19467,11 @@
         <v>2444064</v>
       </c>
     </row>
-    <row r="29" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
-      <c r="B29" s="13"/>
+      <c r="B29" s="131">
+        <v>2011</v>
+      </c>
       <c r="C29" s="14" t="s">
         <v>19</v>
       </c>
@@ -19523,9 +19562,11 @@
         <v>2596941</v>
       </c>
     </row>
-    <row r="30" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
-      <c r="B30" s="13"/>
+      <c r="B30" s="131">
+        <v>2011</v>
+      </c>
       <c r="C30" s="14" t="s">
         <v>20</v>
       </c>
@@ -19616,9 +19657,11 @@
         <v>2679630</v>
       </c>
     </row>
-    <row r="31" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
-      <c r="B31" s="20"/>
+      <c r="B31" s="131">
+        <v>2011</v>
+      </c>
       <c r="C31" s="14" t="s">
         <v>21</v>
       </c>
@@ -19709,9 +19752,11 @@
         <v>2764399</v>
       </c>
     </row>
-    <row r="32" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
-      <c r="B32" s="13"/>
+      <c r="B32" s="131">
+        <v>2011</v>
+      </c>
       <c r="C32" s="14" t="s">
         <v>22</v>
       </c>
@@ -19802,9 +19847,11 @@
         <v>2744786</v>
       </c>
     </row>
-    <row r="33" spans="1:54" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
-      <c r="B33" s="17"/>
+      <c r="B33" s="131">
+        <v>2011</v>
+      </c>
       <c r="C33" s="18" t="s">
         <v>23</v>
       </c>
@@ -19895,9 +19942,9 @@
         <v>3154995</v>
       </c>
     </row>
-    <row r="34" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
-      <c r="B34" s="10">
+      <c r="B34" s="131">
         <v>2012</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -19999,9 +20046,11 @@
         <v>3274151</v>
       </c>
     </row>
-    <row r="35" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="13"/>
+      <c r="B35" s="131">
+        <v>2012</v>
+      </c>
       <c r="C35" s="14" t="s">
         <v>13</v>
       </c>
@@ -20099,9 +20148,11 @@
         <v>3353946</v>
       </c>
     </row>
-    <row r="36" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
-      <c r="B36" s="13"/>
+      <c r="B36" s="131">
+        <v>2012</v>
+      </c>
       <c r="C36" s="14" t="s">
         <v>14</v>
       </c>
@@ -20195,9 +20246,11 @@
         <v>3619463</v>
       </c>
     </row>
-    <row r="37" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="131">
+        <v>2012</v>
+      </c>
       <c r="C37" s="14" t="s">
         <v>15</v>
       </c>
@@ -20298,9 +20351,11 @@
         <v>3694300</v>
       </c>
     </row>
-    <row r="38" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
-      <c r="B38" s="13"/>
+      <c r="B38" s="131">
+        <v>2012</v>
+      </c>
       <c r="C38" s="14" t="s">
         <v>16</v>
       </c>
@@ -20401,9 +20456,11 @@
         <v>3835712</v>
       </c>
     </row>
-    <row r="39" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
-      <c r="B39" s="13"/>
+      <c r="B39" s="131">
+        <v>2012</v>
+      </c>
       <c r="C39" s="14" t="s">
         <v>17</v>
       </c>
@@ -20511,9 +20568,11 @@
         <v>3946142</v>
       </c>
     </row>
-    <row r="40" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
-      <c r="B40" s="13"/>
+      <c r="B40" s="131">
+        <v>2012</v>
+      </c>
       <c r="C40" s="14" t="s">
         <v>18</v>
       </c>
@@ -20626,9 +20685,11 @@
         <v>4139993</v>
       </c>
     </row>
-    <row r="41" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="131">
+        <v>2012</v>
+      </c>
       <c r="C41" s="14" t="s">
         <v>19</v>
       </c>
@@ -20741,9 +20802,11 @@
         <v>4347399</v>
       </c>
     </row>
-    <row r="42" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
-      <c r="B42" s="13"/>
+      <c r="B42" s="131">
+        <v>2012</v>
+      </c>
       <c r="C42" s="14" t="s">
         <v>20</v>
       </c>
@@ -20856,9 +20919,11 @@
         <v>4409493</v>
       </c>
     </row>
-    <row r="43" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
-      <c r="B43" s="20"/>
+      <c r="B43" s="131">
+        <v>2012</v>
+      </c>
       <c r="C43" s="14" t="s">
         <v>21</v>
       </c>
@@ -20971,9 +21036,11 @@
         <v>4494650</v>
       </c>
     </row>
-    <row r="44" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
-      <c r="B44" s="13"/>
+      <c r="B44" s="131">
+        <v>2012</v>
+      </c>
       <c r="C44" s="14" t="s">
         <v>22</v>
       </c>
@@ -21086,9 +21153,11 @@
         <v>4576134</v>
       </c>
     </row>
-    <row r="45" spans="1:54" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
-      <c r="B45" s="17"/>
+      <c r="B45" s="131">
+        <v>2012</v>
+      </c>
       <c r="C45" s="18" t="s">
         <v>23</v>
       </c>
@@ -21199,9 +21268,9 @@
         <v>4983888</v>
       </c>
     </row>
-    <row r="46" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
-      <c r="B46" s="10">
+      <c r="B46" s="131">
         <v>2013</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -21320,9 +21389,11 @@
         <v>5048537</v>
       </c>
     </row>
-    <row r="47" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
-      <c r="B47" s="13"/>
+      <c r="B47" s="131">
+        <v>2013</v>
+      </c>
       <c r="C47" s="14" t="s">
         <v>13</v>
       </c>
@@ -21437,9 +21508,11 @@
         <v>5090041</v>
       </c>
     </row>
-    <row r="48" spans="1:54" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
-      <c r="B48" s="13"/>
+      <c r="B48" s="131">
+        <v>2013</v>
+      </c>
       <c r="C48" s="14" t="s">
         <v>14</v>
       </c>
@@ -21554,9 +21627,11 @@
         <v>5268103</v>
       </c>
     </row>
-    <row r="49" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="131">
+        <v>2013</v>
+      </c>
       <c r="C49" s="14" t="s">
         <v>15</v>
       </c>
@@ -21671,9 +21746,11 @@
         <v>5370918</v>
       </c>
     </row>
-    <row r="50" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
-      <c r="B50" s="13"/>
+      <c r="B50" s="131">
+        <v>2013</v>
+      </c>
       <c r="C50" s="14" t="s">
         <v>16</v>
       </c>
@@ -21788,9 +21865,11 @@
         <v>5469374</v>
       </c>
     </row>
-    <row r="51" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="13"/>
+      <c r="B51" s="131">
+        <v>2013</v>
+      </c>
       <c r="C51" s="14" t="s">
         <v>17</v>
       </c>
@@ -21905,9 +21984,11 @@
         <v>5447665</v>
       </c>
     </row>
-    <row r="52" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="20"/>
+      <c r="B52" s="131">
+        <v>2013</v>
+      </c>
       <c r="C52" s="14" t="s">
         <v>18</v>
       </c>
@@ -22022,9 +22103,11 @@
         <v>5614971</v>
       </c>
     </row>
-    <row r="53" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
-      <c r="B53" s="13"/>
+      <c r="B53" s="131">
+        <v>2013</v>
+      </c>
       <c r="C53" s="14" t="s">
         <v>19</v>
       </c>
@@ -22139,9 +22222,11 @@
         <v>5679494</v>
       </c>
     </row>
-    <row r="54" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
-      <c r="B54" s="13"/>
+      <c r="B54" s="131">
+        <v>2013</v>
+      </c>
       <c r="C54" s="14" t="s">
         <v>20</v>
       </c>
@@ -22256,9 +22341,11 @@
         <v>5645778</v>
       </c>
     </row>
-    <row r="55" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
-      <c r="B55" s="20"/>
+      <c r="B55" s="131">
+        <v>2013</v>
+      </c>
       <c r="C55" s="14" t="s">
         <v>21</v>
       </c>
@@ -22378,9 +22465,11 @@
         <v>5876547</v>
       </c>
     </row>
-    <row r="56" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
-      <c r="B56" s="13"/>
+      <c r="B56" s="131">
+        <v>2013</v>
+      </c>
       <c r="C56" s="14" t="s">
         <v>22</v>
       </c>
@@ -22500,9 +22589,11 @@
         <v>5880360</v>
       </c>
     </row>
-    <row r="57" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
-      <c r="B57" s="17"/>
+      <c r="B57" s="131">
+        <v>2013</v>
+      </c>
       <c r="C57" s="18" t="s">
         <v>23</v>
       </c>
@@ -22627,9 +22718,9 @@
         <v>6366120</v>
       </c>
     </row>
-    <row r="58" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
-      <c r="B58" s="10">
+      <c r="B58" s="131">
         <v>2014</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -22769,9 +22860,11 @@
       </c>
       <c r="BC58" s="48"/>
     </row>
-    <row r="59" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
-      <c r="B59" s="13"/>
+      <c r="B59" s="131">
+        <v>2014</v>
+      </c>
       <c r="C59" s="14" t="s">
         <v>13</v>
       </c>
@@ -22907,9 +23000,11 @@
       </c>
       <c r="BC59" s="48"/>
     </row>
-    <row r="60" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
-      <c r="B60" s="13"/>
+      <c r="B60" s="131">
+        <v>2014</v>
+      </c>
       <c r="C60" s="14" t="s">
         <v>14</v>
       </c>
@@ -23045,9 +23140,11 @@
       </c>
       <c r="BC60" s="48"/>
     </row>
-    <row r="61" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
-      <c r="B61" s="20"/>
+      <c r="B61" s="131">
+        <v>2014</v>
+      </c>
       <c r="C61" s="14" t="s">
         <v>15</v>
       </c>
@@ -23188,9 +23285,11 @@
       </c>
       <c r="BC61" s="48"/>
     </row>
-    <row r="62" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
-      <c r="B62" s="13"/>
+      <c r="B62" s="131">
+        <v>2014</v>
+      </c>
       <c r="C62" s="14" t="s">
         <v>16</v>
       </c>
@@ -23331,9 +23430,11 @@
       </c>
       <c r="BC62" s="48"/>
     </row>
-    <row r="63" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
-      <c r="B63" s="13"/>
+      <c r="B63" s="131">
+        <v>2014</v>
+      </c>
       <c r="C63" s="14" t="s">
         <v>17</v>
       </c>
@@ -23478,9 +23579,11 @@
       </c>
       <c r="BC63" s="48"/>
     </row>
-    <row r="64" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="131">
+        <v>2014</v>
+      </c>
       <c r="C64" s="14" t="s">
         <v>18</v>
       </c>
@@ -23625,9 +23728,11 @@
       </c>
       <c r="BC64" s="48"/>
     </row>
-    <row r="65" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
-      <c r="B65" s="13"/>
+      <c r="B65" s="131">
+        <v>2014</v>
+      </c>
       <c r="C65" s="14" t="s">
         <v>19</v>
       </c>
@@ -23772,9 +23877,11 @@
       </c>
       <c r="BC65" s="48"/>
     </row>
-    <row r="66" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
-      <c r="B66" s="13"/>
+      <c r="B66" s="131">
+        <v>2014</v>
+      </c>
       <c r="C66" s="14" t="s">
         <v>20</v>
       </c>
@@ -23919,9 +24026,11 @@
       </c>
       <c r="BC66" s="48"/>
     </row>
-    <row r="67" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="131">
+        <v>2014</v>
+      </c>
       <c r="C67" s="14" t="s">
         <v>21</v>
       </c>
@@ -24066,9 +24175,11 @@
       </c>
       <c r="BC67" s="48"/>
     </row>
-    <row r="68" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
-      <c r="B68" s="13"/>
+      <c r="B68" s="131">
+        <v>2014</v>
+      </c>
       <c r="C68" s="14" t="s">
         <v>22</v>
       </c>
@@ -24213,9 +24324,11 @@
       </c>
       <c r="BC68" s="48"/>
     </row>
-    <row r="69" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
-      <c r="B69" s="17"/>
+      <c r="B69" s="131">
+        <v>2014</v>
+      </c>
       <c r="C69" s="18" t="s">
         <v>23</v>
       </c>
@@ -24360,9 +24473,9 @@
       </c>
       <c r="BC69" s="48"/>
     </row>
-    <row r="70" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
-      <c r="B70" s="10">
+      <c r="B70" s="131">
         <v>2015</v>
       </c>
       <c r="C70" s="11" t="s">
@@ -24511,9 +24624,11 @@
       </c>
       <c r="BC70" s="48"/>
     </row>
-    <row r="71" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
-      <c r="B71" s="13"/>
+      <c r="B71" s="131">
+        <v>2015</v>
+      </c>
       <c r="C71" s="14" t="s">
         <v>13</v>
       </c>
@@ -24658,9 +24773,11 @@
       </c>
       <c r="BC71" s="48"/>
     </row>
-    <row r="72" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
-      <c r="B72" s="13"/>
+      <c r="B72" s="131">
+        <v>2015</v>
+      </c>
       <c r="C72" s="14" t="s">
         <v>14</v>
       </c>
@@ -24805,9 +24922,11 @@
       </c>
       <c r="BC72" s="48"/>
     </row>
-    <row r="73" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="131">
+        <v>2015</v>
+      </c>
       <c r="C73" s="14" t="s">
         <v>15</v>
       </c>
@@ -24952,9 +25071,11 @@
       </c>
       <c r="BC73" s="48"/>
     </row>
-    <row r="74" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
-      <c r="B74" s="13"/>
+      <c r="B74" s="131">
+        <v>2015</v>
+      </c>
       <c r="C74" s="14" t="s">
         <v>16</v>
       </c>
@@ -25099,9 +25220,11 @@
       </c>
       <c r="BC74" s="48"/>
     </row>
-    <row r="75" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
-      <c r="B75" s="13"/>
+      <c r="B75" s="131">
+        <v>2015</v>
+      </c>
       <c r="C75" s="14" t="s">
         <v>17</v>
       </c>
@@ -25246,9 +25369,11 @@
       </c>
       <c r="BC75" s="48"/>
     </row>
-    <row r="76" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
-      <c r="B76" s="20"/>
+      <c r="B76" s="131">
+        <v>2015</v>
+      </c>
       <c r="C76" s="14" t="s">
         <v>18</v>
       </c>
@@ -25398,9 +25523,11 @@
       </c>
       <c r="BC76" s="48"/>
     </row>
-    <row r="77" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
-      <c r="B77" s="13"/>
+      <c r="B77" s="131">
+        <v>2015</v>
+      </c>
       <c r="C77" s="14" t="s">
         <v>19</v>
       </c>
@@ -25552,9 +25679,11 @@
       </c>
       <c r="BC77" s="48"/>
     </row>
-    <row r="78" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
-      <c r="B78" s="13"/>
+      <c r="B78" s="131">
+        <v>2015</v>
+      </c>
       <c r="C78" s="14" t="s">
         <v>20</v>
       </c>
@@ -25706,9 +25835,11 @@
       </c>
       <c r="BC78" s="48"/>
     </row>
-    <row r="79" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
-      <c r="B79" s="20"/>
+      <c r="B79" s="131">
+        <v>2015</v>
+      </c>
       <c r="C79" s="14" t="s">
         <v>21</v>
       </c>
@@ -25860,9 +25991,11 @@
       </c>
       <c r="BC79" s="48"/>
     </row>
-    <row r="80" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
-      <c r="B80" s="13"/>
+      <c r="B80" s="131">
+        <v>2015</v>
+      </c>
       <c r="C80" s="14" t="s">
         <v>22</v>
       </c>
@@ -26011,9 +26144,11 @@
       </c>
       <c r="BC80" s="48"/>
     </row>
-    <row r="81" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
-      <c r="B81" s="17"/>
+      <c r="B81" s="131">
+        <v>2015</v>
+      </c>
       <c r="C81" s="18" t="s">
         <v>23</v>
       </c>
@@ -26162,9 +26297,9 @@
       </c>
       <c r="BC81" s="48"/>
     </row>
-    <row r="82" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
-      <c r="B82" s="10">
+      <c r="B82" s="131">
         <v>2016</v>
       </c>
       <c r="C82" s="11" t="s">
@@ -26317,9 +26452,11 @@
       </c>
       <c r="BC82" s="48"/>
     </row>
-    <row r="83" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
-      <c r="B83" s="13"/>
+      <c r="B83" s="131">
+        <v>2016</v>
+      </c>
       <c r="C83" s="14" t="s">
         <v>13</v>
       </c>
@@ -26468,9 +26605,11 @@
       </c>
       <c r="BC83" s="48"/>
     </row>
-    <row r="84" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
-      <c r="B84" s="13"/>
+      <c r="B84" s="131">
+        <v>2016</v>
+      </c>
       <c r="C84" s="14" t="s">
         <v>14</v>
       </c>
@@ -26619,9 +26758,11 @@
       </c>
       <c r="BC84" s="48"/>
     </row>
-    <row r="85" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
-      <c r="B85" s="20"/>
+      <c r="B85" s="131">
+        <v>2016</v>
+      </c>
       <c r="C85" s="14" t="s">
         <v>15</v>
       </c>
@@ -26770,9 +26911,11 @@
       </c>
       <c r="BC85" s="48"/>
     </row>
-    <row r="86" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
-      <c r="B86" s="13"/>
+      <c r="B86" s="131">
+        <v>2016</v>
+      </c>
       <c r="C86" s="14" t="s">
         <v>16</v>
       </c>
@@ -26921,9 +27064,11 @@
       </c>
       <c r="BC86" s="48"/>
     </row>
-    <row r="87" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
-      <c r="B87" s="13"/>
+      <c r="B87" s="131">
+        <v>2016</v>
+      </c>
       <c r="C87" s="14" t="s">
         <v>17</v>
       </c>
@@ -27072,9 +27217,11 @@
       </c>
       <c r="BC87" s="48"/>
     </row>
-    <row r="88" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
-      <c r="B88" s="13"/>
+      <c r="B88" s="131">
+        <v>2016</v>
+      </c>
       <c r="C88" s="14" t="s">
         <v>18</v>
       </c>
@@ -27223,9 +27370,11 @@
       </c>
       <c r="BC88" s="48"/>
     </row>
-    <row r="89" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
-      <c r="B89" s="13"/>
+      <c r="B89" s="131">
+        <v>2016</v>
+      </c>
       <c r="C89" s="14" t="s">
         <v>19</v>
       </c>
@@ -27374,9 +27523,11 @@
       </c>
       <c r="BC89" s="48"/>
     </row>
-    <row r="90" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
-      <c r="B90" s="20"/>
+      <c r="B90" s="131">
+        <v>2016</v>
+      </c>
       <c r="C90" s="14" t="s">
         <v>20</v>
       </c>
@@ -27525,9 +27676,11 @@
       </c>
       <c r="BC90" s="48"/>
     </row>
-    <row r="91" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
-      <c r="B91" s="13"/>
+      <c r="B91" s="131">
+        <v>2016</v>
+      </c>
       <c r="C91" s="14" t="s">
         <v>21</v>
       </c>
@@ -27676,9 +27829,11 @@
       </c>
       <c r="BC91" s="48"/>
     </row>
-    <row r="92" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9"/>
-      <c r="B92" s="20"/>
+      <c r="B92" s="131">
+        <v>2016</v>
+      </c>
       <c r="C92" s="14" t="s">
         <v>22</v>
       </c>
@@ -27827,9 +27982,11 @@
       </c>
       <c r="BC92" s="48"/>
     </row>
-    <row r="93" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
-      <c r="B93" s="17"/>
+      <c r="B93" s="131">
+        <v>2016</v>
+      </c>
       <c r="C93" s="18" t="s">
         <v>23</v>
       </c>
@@ -27978,9 +28135,9 @@
       </c>
       <c r="BC93" s="48"/>
     </row>
-    <row r="94" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9"/>
-      <c r="B94" s="10">
+      <c r="B94" s="131">
         <v>2017</v>
       </c>
       <c r="C94" s="11" t="s">
@@ -28133,9 +28290,11 @@
       </c>
       <c r="BC94" s="48"/>
     </row>
-    <row r="95" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
-      <c r="B95" s="13"/>
+      <c r="B95" s="131">
+        <v>2017</v>
+      </c>
       <c r="C95" s="14" t="s">
         <v>13</v>
       </c>
@@ -28284,9 +28443,11 @@
       </c>
       <c r="BC95" s="48"/>
     </row>
-    <row r="96" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
-      <c r="B96" s="13"/>
+      <c r="B96" s="131">
+        <v>2017</v>
+      </c>
       <c r="C96" s="14" t="s">
         <v>14</v>
       </c>
@@ -28437,9 +28598,11 @@
       </c>
       <c r="BC96" s="48"/>
     </row>
-    <row r="97" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
-      <c r="B97" s="20"/>
+      <c r="B97" s="131">
+        <v>2017</v>
+      </c>
       <c r="C97" s="14" t="s">
         <v>15</v>
       </c>
@@ -28590,9 +28753,11 @@
       </c>
       <c r="BC97" s="48"/>
     </row>
-    <row r="98" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9"/>
-      <c r="B98" s="13"/>
+      <c r="B98" s="131">
+        <v>2017</v>
+      </c>
       <c r="C98" s="14" t="s">
         <v>16</v>
       </c>
@@ -28743,9 +28908,11 @@
       </c>
       <c r="BC98" s="48"/>
     </row>
-    <row r="99" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
-      <c r="B99" s="13"/>
+      <c r="B99" s="131">
+        <v>2017</v>
+      </c>
       <c r="C99" s="14" t="s">
         <v>17</v>
       </c>
@@ -28900,9 +29067,11 @@
       </c>
       <c r="BC99" s="48"/>
     </row>
-    <row r="100" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
-      <c r="B100" s="20"/>
+      <c r="B100" s="131">
+        <v>2017</v>
+      </c>
       <c r="C100" s="14" t="s">
         <v>18</v>
       </c>
@@ -29057,9 +29226,11 @@
       </c>
       <c r="BC100" s="48"/>
     </row>
-    <row r="101" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9"/>
-      <c r="B101" s="13"/>
+      <c r="B101" s="131">
+        <v>2017</v>
+      </c>
       <c r="C101" s="14" t="s">
         <v>19</v>
       </c>
@@ -29214,9 +29385,11 @@
       </c>
       <c r="BC101" s="48"/>
     </row>
-    <row r="102" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9"/>
-      <c r="B102" s="13"/>
+      <c r="B102" s="131">
+        <v>2017</v>
+      </c>
       <c r="C102" s="14" t="s">
         <v>20</v>
       </c>
@@ -29371,9 +29544,11 @@
       </c>
       <c r="BC102" s="48"/>
     </row>
-    <row r="103" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
-      <c r="B103" s="20"/>
+      <c r="B103" s="131">
+        <v>2017</v>
+      </c>
       <c r="C103" s="14" t="s">
         <v>21</v>
       </c>
@@ -29528,9 +29703,11 @@
       </c>
       <c r="BC103" s="48"/>
     </row>
-    <row r="104" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
-      <c r="B104" s="13"/>
+      <c r="B104" s="131">
+        <v>2017</v>
+      </c>
       <c r="C104" s="14" t="s">
         <v>22</v>
       </c>
@@ -29685,9 +29862,11 @@
       </c>
       <c r="BC104" s="48"/>
     </row>
-    <row r="105" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
-      <c r="B105" s="17"/>
+      <c r="B105" s="131">
+        <v>2017</v>
+      </c>
       <c r="C105" s="18" t="s">
         <v>23</v>
       </c>
@@ -29842,9 +30021,9 @@
       </c>
       <c r="BC105" s="48"/>
     </row>
-    <row r="106" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9"/>
-      <c r="B106" s="10">
+      <c r="B106" s="131">
         <v>2018</v>
       </c>
       <c r="C106" s="11" t="s">
@@ -30003,9 +30182,11 @@
       </c>
       <c r="BC106" s="48"/>
     </row>
-    <row r="107" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
-      <c r="B107" s="13"/>
+      <c r="B107" s="131">
+        <v>2018</v>
+      </c>
       <c r="C107" s="14" t="s">
         <v>13</v>
       </c>
@@ -30160,9 +30341,11 @@
       </c>
       <c r="BC107" s="48"/>
     </row>
-    <row r="108" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
-      <c r="B108" s="13"/>
+      <c r="B108" s="131">
+        <v>2018</v>
+      </c>
       <c r="C108" s="14" t="s">
         <v>14</v>
       </c>
@@ -30317,9 +30500,11 @@
       </c>
       <c r="BC108" s="48"/>
     </row>
-    <row r="109" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9"/>
-      <c r="B109" s="20"/>
+      <c r="B109" s="131">
+        <v>2018</v>
+      </c>
       <c r="C109" s="14" t="s">
         <v>15</v>
       </c>
@@ -30474,9 +30659,11 @@
       </c>
       <c r="BC109" s="48"/>
     </row>
-    <row r="110" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9"/>
-      <c r="B110" s="13"/>
+      <c r="B110" s="131">
+        <v>2018</v>
+      </c>
       <c r="C110" s="14" t="s">
         <v>16</v>
       </c>
@@ -30631,9 +30818,11 @@
       </c>
       <c r="BC110" s="48"/>
     </row>
-    <row r="111" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9"/>
-      <c r="B111" s="13"/>
+      <c r="B111" s="131">
+        <v>2018</v>
+      </c>
       <c r="C111" s="14" t="s">
         <v>17</v>
       </c>
@@ -30788,9 +30977,11 @@
       </c>
       <c r="BC111" s="48"/>
     </row>
-    <row r="112" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
-      <c r="B112" s="20"/>
+      <c r="B112" s="131">
+        <v>2018</v>
+      </c>
       <c r="C112" s="14" t="s">
         <v>18</v>
       </c>
@@ -30945,9 +31136,11 @@
       </c>
       <c r="BC112" s="48"/>
     </row>
-    <row r="113" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9"/>
-      <c r="B113" s="13"/>
+      <c r="B113" s="131">
+        <v>2018</v>
+      </c>
       <c r="C113" s="14" t="s">
         <v>19</v>
       </c>
@@ -31102,9 +31295,11 @@
       </c>
       <c r="BC113" s="48"/>
     </row>
-    <row r="114" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9"/>
-      <c r="B114" s="13"/>
+      <c r="B114" s="131">
+        <v>2018</v>
+      </c>
       <c r="C114" s="14" t="s">
         <v>20</v>
       </c>
@@ -31259,9 +31454,11 @@
       </c>
       <c r="BC114" s="48"/>
     </row>
-    <row r="115" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
-      <c r="B115" s="20"/>
+      <c r="B115" s="131">
+        <v>2018</v>
+      </c>
       <c r="C115" s="14" t="s">
         <v>21</v>
       </c>
@@ -31411,9 +31608,11 @@
       </c>
       <c r="BC115" s="48"/>
     </row>
-    <row r="116" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
-      <c r="B116" s="13"/>
+      <c r="B116" s="131">
+        <v>2018</v>
+      </c>
       <c r="C116" s="14" t="s">
         <v>22</v>
       </c>
@@ -31563,9 +31762,11 @@
       </c>
       <c r="BC116" s="48"/>
     </row>
-    <row r="117" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9"/>
-      <c r="B117" s="17"/>
+      <c r="B117" s="131">
+        <v>2018</v>
+      </c>
       <c r="C117" s="18" t="s">
         <v>23</v>
       </c>
@@ -31715,9 +31916,9 @@
       </c>
       <c r="BC117" s="48"/>
     </row>
-    <row r="118" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9"/>
-      <c r="B118" s="10">
+      <c r="B118" s="131">
         <v>2019</v>
       </c>
       <c r="C118" s="11" t="s">
@@ -31864,9 +32065,11 @@
       </c>
       <c r="BC118" s="48"/>
     </row>
-    <row r="119" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9"/>
-      <c r="B119" s="13"/>
+      <c r="B119" s="131">
+        <v>2019</v>
+      </c>
       <c r="C119" s="14" t="s">
         <v>13</v>
       </c>
@@ -32009,9 +32212,11 @@
       </c>
       <c r="BC119" s="48"/>
     </row>
-    <row r="120" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9"/>
-      <c r="B120" s="13"/>
+      <c r="B120" s="131">
+        <v>2019</v>
+      </c>
       <c r="C120" s="14" t="s">
         <v>14</v>
       </c>
@@ -32154,9 +32359,11 @@
       </c>
       <c r="BC120" s="48"/>
     </row>
-    <row r="121" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
-      <c r="B121" s="20"/>
+      <c r="B121" s="131">
+        <v>2019</v>
+      </c>
       <c r="C121" s="14" t="s">
         <v>15</v>
       </c>
@@ -32299,9 +32506,11 @@
       </c>
       <c r="BC121" s="48"/>
     </row>
-    <row r="122" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9"/>
-      <c r="B122" s="13"/>
+      <c r="B122" s="131">
+        <v>2019</v>
+      </c>
       <c r="C122" s="14" t="s">
         <v>16</v>
       </c>
@@ -32444,9 +32653,11 @@
       </c>
       <c r="BC122" s="48"/>
     </row>
-    <row r="123" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
-      <c r="B123" s="13"/>
+      <c r="B123" s="131">
+        <v>2019</v>
+      </c>
       <c r="C123" s="14" t="s">
         <v>17</v>
       </c>
@@ -32589,9 +32800,11 @@
       </c>
       <c r="BC123" s="48"/>
     </row>
-    <row r="124" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
-      <c r="B124" s="20"/>
+      <c r="B124" s="131">
+        <v>2019</v>
+      </c>
       <c r="C124" s="14" t="s">
         <v>18</v>
       </c>
@@ -32734,9 +32947,11 @@
       </c>
       <c r="BC124" s="48"/>
     </row>
-    <row r="125" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
-      <c r="B125" s="13"/>
+      <c r="B125" s="131">
+        <v>2019</v>
+      </c>
       <c r="C125" s="14" t="s">
         <v>19</v>
       </c>
@@ -32879,9 +33094,11 @@
       </c>
       <c r="BC125" s="48"/>
     </row>
-    <row r="126" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
-      <c r="B126" s="13"/>
+      <c r="B126" s="131">
+        <v>2019</v>
+      </c>
       <c r="C126" s="14" t="s">
         <v>20</v>
       </c>
@@ -33024,9 +33241,11 @@
       </c>
       <c r="BC126" s="48"/>
     </row>
-    <row r="127" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
-      <c r="B127" s="20"/>
+      <c r="B127" s="131">
+        <v>2019</v>
+      </c>
       <c r="C127" s="14" t="s">
         <v>21</v>
       </c>
@@ -33169,9 +33388,11 @@
       </c>
       <c r="BC127" s="48"/>
     </row>
-    <row r="128" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9"/>
-      <c r="B128" s="13"/>
+      <c r="B128" s="131">
+        <v>2019</v>
+      </c>
       <c r="C128" s="14" t="s">
         <v>22</v>
       </c>
@@ -33314,9 +33535,11 @@
       </c>
       <c r="BC128" s="48"/>
     </row>
-    <row r="129" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9"/>
-      <c r="B129" s="17"/>
+      <c r="B129" s="131">
+        <v>2019</v>
+      </c>
       <c r="C129" s="18" t="s">
         <v>23</v>
       </c>
@@ -33459,9 +33682,9 @@
       </c>
       <c r="BC129" s="48"/>
     </row>
-    <row r="130" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9"/>
-      <c r="B130" s="10">
+      <c r="B130" s="131">
         <v>2020</v>
       </c>
       <c r="C130" s="11" t="s">
@@ -33608,9 +33831,11 @@
       </c>
       <c r="BC130" s="48"/>
     </row>
-    <row r="131" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
-      <c r="B131" s="13"/>
+      <c r="B131" s="131">
+        <v>2020</v>
+      </c>
       <c r="C131" s="14" t="s">
         <v>13</v>
       </c>
@@ -33753,9 +33978,11 @@
       </c>
       <c r="BC131" s="48"/>
     </row>
-    <row r="132" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
-      <c r="B132" s="13"/>
+      <c r="B132" s="131">
+        <v>2020</v>
+      </c>
       <c r="C132" s="14" t="s">
         <v>14</v>
       </c>
@@ -33898,9 +34125,11 @@
       </c>
       <c r="BC132" s="48"/>
     </row>
-    <row r="133" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
-      <c r="B133" s="20"/>
+      <c r="B133" s="131">
+        <v>2020</v>
+      </c>
       <c r="C133" s="14" t="s">
         <v>15</v>
       </c>
@@ -34043,9 +34272,11 @@
       </c>
       <c r="BC133" s="48"/>
     </row>
-    <row r="134" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
-      <c r="B134" s="13"/>
+      <c r="B134" s="131">
+        <v>2020</v>
+      </c>
       <c r="C134" s="14" t="s">
         <v>16</v>
       </c>
@@ -34188,9 +34419,11 @@
       </c>
       <c r="BC134" s="48"/>
     </row>
-    <row r="135" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9"/>
-      <c r="B135" s="13"/>
+      <c r="B135" s="131">
+        <v>2020</v>
+      </c>
       <c r="C135" s="14" t="s">
         <v>17</v>
       </c>
@@ -34333,9 +34566,11 @@
       </c>
       <c r="BC135" s="48"/>
     </row>
-    <row r="136" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9"/>
-      <c r="B136" s="20"/>
+      <c r="B136" s="131">
+        <v>2020</v>
+      </c>
       <c r="C136" s="14" t="s">
         <v>18</v>
       </c>
@@ -34478,9 +34713,11 @@
       </c>
       <c r="BC136" s="48"/>
     </row>
-    <row r="137" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9"/>
-      <c r="B137" s="13"/>
+      <c r="B137" s="131">
+        <v>2020</v>
+      </c>
       <c r="C137" s="14" t="s">
         <v>19</v>
       </c>
@@ -34623,9 +34860,11 @@
       </c>
       <c r="BC137" s="48"/>
     </row>
-    <row r="138" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9"/>
-      <c r="B138" s="13"/>
+      <c r="B138" s="131">
+        <v>2020</v>
+      </c>
       <c r="C138" s="14" t="s">
         <v>20</v>
       </c>
@@ -34768,9 +35007,11 @@
       </c>
       <c r="BC138" s="48"/>
     </row>
-    <row r="139" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9"/>
-      <c r="B139" s="20"/>
+      <c r="B139" s="131">
+        <v>2020</v>
+      </c>
       <c r="C139" s="14" t="s">
         <v>21</v>
       </c>
@@ -34918,9 +35159,11 @@
       </c>
       <c r="BC139" s="48"/>
     </row>
-    <row r="140" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9"/>
-      <c r="B140" s="13"/>
+      <c r="B140" s="131">
+        <v>2020</v>
+      </c>
       <c r="C140" s="14" t="s">
         <v>22</v>
       </c>
@@ -35070,9 +35313,11 @@
       </c>
       <c r="BC140" s="48"/>
     </row>
-    <row r="141" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9"/>
-      <c r="B141" s="17"/>
+      <c r="B141" s="131">
+        <v>2020</v>
+      </c>
       <c r="C141" s="18" t="s">
         <v>23</v>
       </c>
@@ -35224,9 +35469,9 @@
       </c>
       <c r="BC141" s="48"/>
     </row>
-    <row r="142" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9"/>
-      <c r="B142" s="10">
+      <c r="B142" s="131">
         <v>2021</v>
       </c>
       <c r="C142" s="11" t="s">
@@ -35382,9 +35627,11 @@
       </c>
       <c r="BC142" s="48"/>
     </row>
-    <row r="143" spans="1:55" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:55" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
-      <c r="B143" s="13"/>
+      <c r="B143" s="131">
+        <v>2021</v>
+      </c>
       <c r="C143" s="14" t="s">
         <v>13</v>
       </c>
@@ -35536,9 +35783,11 @@
       </c>
       <c r="BC143" s="48"/>
     </row>
-    <row r="144" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9"/>
-      <c r="B144" s="17"/>
+      <c r="B144" s="131">
+        <v>2021</v>
+      </c>
       <c r="C144" s="18" t="s">
         <v>14</v>
       </c>
@@ -41388,51 +41637,51 @@
     </row>
     <row r="7" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136" t="s">
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="136" t="s">
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="136" t="s">
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="140"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="141"/>
       <c r="P7" s="119"/>
       <c r="Q7" s="119"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="134"/>
-      <c r="T7" s="135"/>
-      <c r="U7" s="136" t="s">
+      <c r="S7" s="135"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="V7" s="139"/>
-      <c r="W7" s="140"/>
-      <c r="X7" s="136" t="s">
+      <c r="V7" s="140"/>
+      <c r="W7" s="141"/>
+      <c r="X7" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="140"/>
-      <c r="AA7" s="136" t="s">
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="141"/>
+      <c r="AA7" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="AB7" s="139"/>
-      <c r="AC7" s="140"/>
-      <c r="AD7" s="136" t="s">
+      <c r="AB7" s="140"/>
+      <c r="AC7" s="141"/>
+      <c r="AD7" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="AE7" s="139"/>
-      <c r="AF7" s="140"/>
+      <c r="AE7" s="140"/>
+      <c r="AF7" s="141"/>
     </row>
     <row r="8" spans="1:33" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
@@ -52472,170 +52721,170 @@
     </row>
     <row r="7" spans="1:61" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="144" t="s">
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="144" t="s">
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="145"/>
-      <c r="S7" s="145"/>
-      <c r="T7" s="145"/>
-      <c r="U7" s="145"/>
-      <c r="V7" s="145"/>
-      <c r="W7" s="145"/>
-      <c r="X7" s="145"/>
-      <c r="Y7" s="145"/>
-      <c r="Z7" s="145"/>
-      <c r="AA7" s="145"/>
-      <c r="AB7" s="145"/>
-      <c r="AC7" s="145"/>
-      <c r="AD7" s="145"/>
-      <c r="AE7" s="145"/>
-      <c r="AF7" s="145"/>
-      <c r="AG7" s="145"/>
-      <c r="AH7" s="145"/>
-      <c r="AI7" s="145"/>
-      <c r="AJ7" s="145"/>
-      <c r="AK7" s="145"/>
-      <c r="AL7" s="146"/>
-      <c r="AM7" s="144" t="s">
+      <c r="Q7" s="146"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="146"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="146"/>
+      <c r="X7" s="146"/>
+      <c r="Y7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="146"/>
+      <c r="AB7" s="146"/>
+      <c r="AC7" s="146"/>
+      <c r="AD7" s="146"/>
+      <c r="AE7" s="146"/>
+      <c r="AF7" s="146"/>
+      <c r="AG7" s="146"/>
+      <c r="AH7" s="146"/>
+      <c r="AI7" s="146"/>
+      <c r="AJ7" s="146"/>
+      <c r="AK7" s="146"/>
+      <c r="AL7" s="147"/>
+      <c r="AM7" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="145"/>
-      <c r="AO7" s="145"/>
-      <c r="AP7" s="145"/>
-      <c r="AQ7" s="145"/>
-      <c r="AR7" s="145"/>
-      <c r="AS7" s="145"/>
-      <c r="AT7" s="145"/>
-      <c r="AU7" s="145"/>
-      <c r="AV7" s="148"/>
-      <c r="AW7" s="148"/>
-      <c r="AX7" s="148"/>
-      <c r="AY7" s="148"/>
-      <c r="AZ7" s="148"/>
-      <c r="BA7" s="148"/>
-      <c r="BB7" s="148"/>
-      <c r="BC7" s="148"/>
-      <c r="BD7" s="148"/>
-      <c r="BE7" s="147"/>
-      <c r="BF7" s="141" t="s">
+      <c r="AN7" s="146"/>
+      <c r="AO7" s="146"/>
+      <c r="AP7" s="146"/>
+      <c r="AQ7" s="146"/>
+      <c r="AR7" s="146"/>
+      <c r="AS7" s="146"/>
+      <c r="AT7" s="146"/>
+      <c r="AU7" s="146"/>
+      <c r="AV7" s="149"/>
+      <c r="AW7" s="149"/>
+      <c r="AX7" s="149"/>
+      <c r="AY7" s="149"/>
+      <c r="AZ7" s="149"/>
+      <c r="BA7" s="149"/>
+      <c r="BB7" s="149"/>
+      <c r="BC7" s="149"/>
+      <c r="BD7" s="149"/>
+      <c r="BE7" s="148"/>
+      <c r="BF7" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="BG7" s="141" t="s">
+      <c r="BG7" s="142" t="s">
         <v>55</v>
       </c>
       <c r="BH7" s="4"/>
     </row>
     <row r="8" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="153" t="s">
+      <c r="C8" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="144" t="s">
+      <c r="D8" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
       <c r="I8" s="128"/>
-      <c r="J8" s="144" t="s">
+      <c r="J8" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="145"/>
-      <c r="L8" s="144" t="s">
+      <c r="K8" s="146"/>
+      <c r="L8" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="145"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="151" t="s">
+      <c r="M8" s="146"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="144" t="s">
+      <c r="P8" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="145"/>
-      <c r="U8" s="145"/>
-      <c r="V8" s="145"/>
-      <c r="W8" s="145"/>
-      <c r="X8" s="145"/>
-      <c r="Y8" s="145"/>
+      <c r="Q8" s="146"/>
+      <c r="R8" s="146"/>
+      <c r="S8" s="146"/>
+      <c r="T8" s="146"/>
+      <c r="U8" s="146"/>
+      <c r="V8" s="146"/>
+      <c r="W8" s="146"/>
+      <c r="X8" s="146"/>
+      <c r="Y8" s="146"/>
       <c r="Z8" s="128"/>
-      <c r="AA8" s="144" t="s">
+      <c r="AA8" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="AB8" s="145"/>
-      <c r="AC8" s="145"/>
-      <c r="AD8" s="145"/>
-      <c r="AE8" s="145"/>
-      <c r="AF8" s="145"/>
-      <c r="AG8" s="145"/>
-      <c r="AH8" s="145"/>
-      <c r="AI8" s="144" t="s">
+      <c r="AB8" s="146"/>
+      <c r="AC8" s="146"/>
+      <c r="AD8" s="146"/>
+      <c r="AE8" s="146"/>
+      <c r="AF8" s="146"/>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="146"/>
+      <c r="AI8" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="AJ8" s="145"/>
-      <c r="AK8" s="146"/>
-      <c r="AL8" s="151" t="s">
+      <c r="AJ8" s="146"/>
+      <c r="AK8" s="147"/>
+      <c r="AL8" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="AM8" s="144" t="s">
+      <c r="AM8" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AN8" s="145"/>
-      <c r="AO8" s="145"/>
-      <c r="AP8" s="145"/>
-      <c r="AQ8" s="145"/>
-      <c r="AR8" s="145"/>
-      <c r="AS8" s="148"/>
-      <c r="AT8" s="149"/>
-      <c r="AU8" s="150"/>
-      <c r="AV8" s="144" t="s">
+      <c r="AN8" s="146"/>
+      <c r="AO8" s="146"/>
+      <c r="AP8" s="146"/>
+      <c r="AQ8" s="146"/>
+      <c r="AR8" s="146"/>
+      <c r="AS8" s="149"/>
+      <c r="AT8" s="150"/>
+      <c r="AU8" s="151"/>
+      <c r="AV8" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="AW8" s="145"/>
-      <c r="AX8" s="145"/>
-      <c r="AY8" s="145"/>
-      <c r="AZ8" s="145"/>
-      <c r="BA8" s="145"/>
-      <c r="BB8" s="147"/>
-      <c r="BC8" s="144" t="s">
+      <c r="AW8" s="146"/>
+      <c r="AX8" s="146"/>
+      <c r="AY8" s="146"/>
+      <c r="AZ8" s="146"/>
+      <c r="BA8" s="146"/>
+      <c r="BB8" s="148"/>
+      <c r="BC8" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="BD8" s="146"/>
-      <c r="BE8" s="151" t="s">
+      <c r="BD8" s="147"/>
+      <c r="BE8" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="BF8" s="142"/>
-      <c r="BG8" s="142"/>
+      <c r="BF8" s="143"/>
+      <c r="BG8" s="143"/>
       <c r="BH8" s="4"/>
     </row>
     <row r="9" spans="1:61" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
       <c r="D9" s="116" t="s">
         <v>24</v>
       </c>
@@ -52669,7 +52918,7 @@
       <c r="N9" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="152"/>
+      <c r="O9" s="153"/>
       <c r="P9" s="116" t="s">
         <v>24</v>
       </c>
@@ -52736,7 +52985,7 @@
       <c r="AK9" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AL9" s="152"/>
+      <c r="AL9" s="153"/>
       <c r="AM9" s="116" t="s">
         <v>24</v>
       </c>
@@ -52791,9 +53040,9 @@
       <c r="BD9" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="BE9" s="155"/>
-      <c r="BF9" s="143"/>
-      <c r="BG9" s="143"/>
+      <c r="BE9" s="156"/>
+      <c r="BF9" s="144"/>
+      <c r="BG9" s="144"/>
       <c r="BH9" s="4"/>
     </row>
     <row r="10" spans="1:61" ht="13.2" x14ac:dyDescent="0.25">

--- a/Datos/2_SERIES_CONEXIONES_INTERNET_MOVIL_MAR21_240521.xlsx
+++ b/Datos/2_SERIES_CONEXIONES_INTERNET_MOVIL_MAR21_240521.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastian\OneDrive\Escritorio\Ramos\2021-2\Habilidades Comunicativas\informe-analisis\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFABF94-625D-405F-A309-4EEBE7D012B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034D8736-3AD6-4812-8B01-C3340B2B14F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9816" yWindow="3084" windowWidth="13224" windowHeight="9276" tabRatio="648" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ÍNDICE" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="79">
   <si>
     <t>SERVICIO ACCESO A INTERNET: TOTAL DE CONEXIONES MÓVILES</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>PART. EMP-TECN.MAR.21</t>
+  </si>
+  <si>
+    <t>Fecha</t>
   </si>
 </sst>
 </file>
@@ -1069,15 +1072,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1087,16 +1081,10 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1112,6 +1100,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11204,7 +11207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFC240"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="I1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
@@ -17062,10 +17065,10 @@
   <dimension ref="A1:BX222"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10:B144"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -17339,7 +17342,9 @@
     </row>
     <row r="7" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
-      <c r="B7" s="135"/>
+      <c r="B7" s="135" t="s">
+        <v>78</v>
+      </c>
       <c r="C7" s="136"/>
       <c r="D7" s="137" t="s">
         <v>2</v>
@@ -37117,7 +37122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N228"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A132" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D140" sqref="D140:F143"/>
     </sheetView>
   </sheetViews>
@@ -52723,168 +52728,168 @@
       <c r="A7" s="9"/>
       <c r="B7" s="135"/>
       <c r="C7" s="136"/>
-      <c r="D7" s="145" t="s">
+      <c r="D7" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="145" t="s">
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="146"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="146"/>
-      <c r="T7" s="146"/>
-      <c r="U7" s="146"/>
-      <c r="V7" s="146"/>
-      <c r="W7" s="146"/>
-      <c r="X7" s="146"/>
-      <c r="Y7" s="146"/>
-      <c r="Z7" s="146"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="146"/>
-      <c r="AD7" s="146"/>
-      <c r="AE7" s="146"/>
-      <c r="AF7" s="146"/>
-      <c r="AG7" s="146"/>
-      <c r="AH7" s="146"/>
-      <c r="AI7" s="146"/>
-      <c r="AJ7" s="146"/>
-      <c r="AK7" s="146"/>
-      <c r="AL7" s="147"/>
-      <c r="AM7" s="145" t="s">
+      <c r="Q7" s="143"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="143"/>
+      <c r="AF7" s="143"/>
+      <c r="AG7" s="143"/>
+      <c r="AH7" s="143"/>
+      <c r="AI7" s="143"/>
+      <c r="AJ7" s="143"/>
+      <c r="AK7" s="143"/>
+      <c r="AL7" s="144"/>
+      <c r="AM7" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="146"/>
-      <c r="AO7" s="146"/>
-      <c r="AP7" s="146"/>
-      <c r="AQ7" s="146"/>
-      <c r="AR7" s="146"/>
-      <c r="AS7" s="146"/>
-      <c r="AT7" s="146"/>
-      <c r="AU7" s="146"/>
-      <c r="AV7" s="149"/>
-      <c r="AW7" s="149"/>
-      <c r="AX7" s="149"/>
-      <c r="AY7" s="149"/>
-      <c r="AZ7" s="149"/>
-      <c r="BA7" s="149"/>
-      <c r="BB7" s="149"/>
-      <c r="BC7" s="149"/>
-      <c r="BD7" s="149"/>
-      <c r="BE7" s="148"/>
-      <c r="BF7" s="142" t="s">
+      <c r="AN7" s="143"/>
+      <c r="AO7" s="143"/>
+      <c r="AP7" s="143"/>
+      <c r="AQ7" s="143"/>
+      <c r="AR7" s="143"/>
+      <c r="AS7" s="143"/>
+      <c r="AT7" s="143"/>
+      <c r="AU7" s="143"/>
+      <c r="AV7" s="145"/>
+      <c r="AW7" s="145"/>
+      <c r="AX7" s="145"/>
+      <c r="AY7" s="145"/>
+      <c r="AZ7" s="145"/>
+      <c r="BA7" s="145"/>
+      <c r="BB7" s="145"/>
+      <c r="BC7" s="145"/>
+      <c r="BD7" s="145"/>
+      <c r="BE7" s="146"/>
+      <c r="BF7" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="BG7" s="142" t="s">
+      <c r="BG7" s="152" t="s">
         <v>55</v>
       </c>
       <c r="BH7" s="4"/>
     </row>
     <row r="8" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="154" t="s">
+      <c r="B8" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="154" t="s">
+      <c r="C8" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="145" t="s">
+      <c r="D8" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
       <c r="I8" s="128"/>
-      <c r="J8" s="145" t="s">
+      <c r="J8" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="146"/>
-      <c r="L8" s="145" t="s">
+      <c r="K8" s="143"/>
+      <c r="L8" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="146"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="152" t="s">
+      <c r="M8" s="143"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="145" t="s">
+      <c r="P8" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="146"/>
-      <c r="R8" s="146"/>
-      <c r="S8" s="146"/>
-      <c r="T8" s="146"/>
-      <c r="U8" s="146"/>
-      <c r="V8" s="146"/>
-      <c r="W8" s="146"/>
-      <c r="X8" s="146"/>
-      <c r="Y8" s="146"/>
+      <c r="Q8" s="143"/>
+      <c r="R8" s="143"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="143"/>
+      <c r="W8" s="143"/>
+      <c r="X8" s="143"/>
+      <c r="Y8" s="143"/>
       <c r="Z8" s="128"/>
-      <c r="AA8" s="145" t="s">
+      <c r="AA8" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="AB8" s="146"/>
-      <c r="AC8" s="146"/>
-      <c r="AD8" s="146"/>
-      <c r="AE8" s="146"/>
-      <c r="AF8" s="146"/>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="146"/>
-      <c r="AI8" s="145" t="s">
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="143"/>
+      <c r="AD8" s="143"/>
+      <c r="AE8" s="143"/>
+      <c r="AF8" s="143"/>
+      <c r="AG8" s="143"/>
+      <c r="AH8" s="143"/>
+      <c r="AI8" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="AJ8" s="146"/>
-      <c r="AK8" s="147"/>
-      <c r="AL8" s="152" t="s">
+      <c r="AJ8" s="143"/>
+      <c r="AK8" s="144"/>
+      <c r="AL8" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="AM8" s="145" t="s">
+      <c r="AM8" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="AN8" s="146"/>
-      <c r="AO8" s="146"/>
-      <c r="AP8" s="146"/>
-      <c r="AQ8" s="146"/>
-      <c r="AR8" s="146"/>
-      <c r="AS8" s="149"/>
-      <c r="AT8" s="150"/>
-      <c r="AU8" s="151"/>
-      <c r="AV8" s="145" t="s">
+      <c r="AN8" s="143"/>
+      <c r="AO8" s="143"/>
+      <c r="AP8" s="143"/>
+      <c r="AQ8" s="143"/>
+      <c r="AR8" s="143"/>
+      <c r="AS8" s="145"/>
+      <c r="AT8" s="155"/>
+      <c r="AU8" s="156"/>
+      <c r="AV8" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="AW8" s="146"/>
-      <c r="AX8" s="146"/>
-      <c r="AY8" s="146"/>
-      <c r="AZ8" s="146"/>
-      <c r="BA8" s="146"/>
-      <c r="BB8" s="148"/>
-      <c r="BC8" s="145" t="s">
+      <c r="AW8" s="143"/>
+      <c r="AX8" s="143"/>
+      <c r="AY8" s="143"/>
+      <c r="AZ8" s="143"/>
+      <c r="BA8" s="143"/>
+      <c r="BB8" s="146"/>
+      <c r="BC8" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="BD8" s="147"/>
-      <c r="BE8" s="152" t="s">
+      <c r="BD8" s="144"/>
+      <c r="BE8" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="BF8" s="143"/>
-      <c r="BG8" s="143"/>
+      <c r="BF8" s="153"/>
+      <c r="BG8" s="153"/>
       <c r="BH8" s="4"/>
     </row>
     <row r="9" spans="1:61" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
       <c r="D9" s="116" t="s">
         <v>24</v>
       </c>
@@ -52918,7 +52923,7 @@
       <c r="N9" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="153"/>
+      <c r="O9" s="148"/>
       <c r="P9" s="116" t="s">
         <v>24</v>
       </c>
@@ -52985,7 +52990,7 @@
       <c r="AK9" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="AL9" s="153"/>
+      <c r="AL9" s="148"/>
       <c r="AM9" s="116" t="s">
         <v>24</v>
       </c>
@@ -53040,9 +53045,9 @@
       <c r="BD9" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="BE9" s="156"/>
-      <c r="BF9" s="144"/>
-      <c r="BG9" s="144"/>
+      <c r="BE9" s="151"/>
+      <c r="BF9" s="154"/>
+      <c r="BG9" s="154"/>
       <c r="BH9" s="4"/>
     </row>
     <row r="10" spans="1:61" ht="13.2" x14ac:dyDescent="0.25">
@@ -63076,6 +63081,12 @@
     <row r="186" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="BF7:BF9"/>
+    <mergeCell ref="BG7:BG9"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="AV8:BB8"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="AM8:AU8"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:O7"/>
     <mergeCell ref="P7:AL7"/>
@@ -63090,12 +63101,6 @@
     <mergeCell ref="P8:Y8"/>
     <mergeCell ref="AA8:AH8"/>
     <mergeCell ref="BE8:BE9"/>
-    <mergeCell ref="BF7:BF9"/>
-    <mergeCell ref="BG7:BG9"/>
-    <mergeCell ref="AI8:AK8"/>
-    <mergeCell ref="AV8:BB8"/>
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="AM8:AU8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="ÍNDICE!A1" display="&lt;&lt; VOLVER" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
@@ -63115,7 +63120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:XFC179"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
